--- a/public/templates/LeadsImportTemplate.xlsx
+++ b/public/templates/LeadsImportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\SmartEducator\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7B5ECC-9D7C-4EDA-969B-8C30581ADAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC12B5-3F0E-4D16-AE96-06A99948F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +439,7 @@
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +476,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D2" s="2"/>
       <c r="I2" s="3"/>
     </row>
